--- a/security/Score Model ASVS.xlsx
+++ b/security/Score Model ASVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\before\webdev_project\security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/before/webdev/security/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DF0536-3DE1-489C-8CA6-A7FCEA826B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DCCDF-D933-D74B-97DD-7769B431AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1920" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="660" windowWidth="46900" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OWASP Application Security" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,21 +48,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Denk aan de slide over 'Threat modeling' in de powerpoint en de opvolgende slide met een strategie om het op te zetten.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Denk aan de slide over 'Threat modeling' in de powerpoint en de opvolgende slide met een strategie om het op te zetten.</t>
         </r>
       </text>
     </comment>
@@ -75,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
@@ -84,7 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 De 'security constraints' mogen ook worden geformuleerd in de acceptatiecriteria én de verplichting hiervan opgenomen in de DOD.</t>
@@ -99,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Ernst Bolt:
 </t>
@@ -165,21 +173,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Met 'Input and Output Architecture' wordt het ontwerp van je API bedoeld.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Met 'Input and Output Architecture' wordt het ontwerp van je API bedoeld.</t>
         </r>
       </text>
     </comment>
@@ -189,21 +206,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Hint: denk aan cookies die gecontroleerd moeten worden. En denk bij 'laws' aan de AVG wetgeving.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hint: denk aan cookies die gecontroleerd moeten worden. En denk bij 'laws' aan de AVG wetgeving.</t>
         </r>
       </text>
     </comment>
@@ -213,7 +239,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -223,18 +249,17 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>De meeste eenvoudige uitleg van een 'trusted service layer' is de bescherming van een service die niet toelaat dat een gebruiker deze wijzigt.
-OWASP beschrijft het zo, waarbij opvallend is dat op een client device dit ook mogelijk is (denk aan secure boot waar je niet op kunt ingrijpen):</t>
+          <t xml:space="preserve">De meeste eenvoudige uitleg van een 'trusted service layer' is de bescherming van een service die niet toelaat dat een gebruiker deze wijzigt.
+</t>
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -244,7 +269,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OWASP beschrijft het zo, waarbij opvallend is dat op een client device dit ook mogelijk is (denk aan secure boot waar je niet op kunt ingrijpen):</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -255,20 +300,61 @@
           <rPr>
             <i/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Therefore, where the
-term "trusted service layer" is used in the ASVS, we mean any trusted enforcement point, regardless of location,
-such as a microservice, serverless API, server-side, a trusted API on a client device that has secure boot, partner or
-external APIs, and so on.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">term "trusted service layer" is used in the ASVS, we mean any trusted enforcement point, regardless of location,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">such as a microservice, serverless API, server-side, a trusted API on a client device that has secure boot, partner or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">external APIs, and so on.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -283,7 +369,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -292,13 +378,41 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-'Protection levels' is een begrip waarvoor ook andere namen worden gebruikt: verification levels, security levels.
-In de powerpoint is 'verification levels' gebruikt</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'Protection levels' is een begrip waarvoor ook andere namen worden gebruikt: verification levels, security levels.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In de powerpoint is 'verification levels' gebruikt</t>
         </r>
       </text>
     </comment>
@@ -308,7 +422,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -317,15 +431,71 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-De nadruk of beter, het onderwerp van dit item is: source control.
-Dus de vraag is of je source control zoals git gebruikt.
-Vervolgens is de vraag in het item: welke procedures gebruik je.
-Je kunt denken aan conventies over 'commit messages', 'tags', 'releases'.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">De nadruk of beter, het onderwerp van dit item is: source control.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dus de vraag is of je source control zoals git gebruikt.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Vervolgens is de vraag in het item: welke procedures gebruik je.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Je kunt denken aan conventies over 'commit messages', 'tags', 'releases'.</t>
         </r>
       </text>
     </comment>
@@ -335,7 +505,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -344,12 +514,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dit kan geautomatiseerd maar je kunt dit ook handmatig doen. </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dit kan geautomatiseerd maar je kunt dit ook handmatig doen. </t>
         </r>
       </text>
     </comment>
@@ -383,7 +562,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -392,14 +571,61 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-De bron geeft geen uitleg over het onderwerp. Dus hieronder de uitleg:
-Op de website van OWASP kun je wel zoeken. Als je daarvan gebruik maakt dan vind je meerdere hits die gaan over onvoldoende entropy.
-Entropy is de mate waarin iets onzeker is. In ICT termen: hoe random iets is. Een password of token moet onzeker zijn. Daarom wordt bij het maken van een password/token gebruik gemaakt van een seed. Deze seed moet in hoge mate random zijn.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">De bron geeft geen uitleg over het onderwerp. Dus hieronder de uitleg:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Op de website van OWASP kun je wel zoeken. Als je daarvan gebruik maakt dan vind je meerdere hits die gaan over onvoldoende entropy.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Entropy is de mate waarin iets onzeker is. In ICT termen: hoe random iets is. Een password of token moet onzeker zijn. Daarom wordt bij het maken van een password/token gebruik gemaakt van een seed. Deze seed moet in hoge mate random zijn.</t>
         </r>
       </text>
     </comment>
@@ -433,6 +659,39 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ernst Bolt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dit mag je handmatig controleren.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F133" authorId="0" shapeId="0" xr:uid="{D4F5BF4F-F87E-4D5A-9DD5-5C62C25E6627}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -445,30 +704,6 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dit mag je handmatig controleren.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F133" authorId="0" shapeId="0" xr:uid="{D4F5BF4F-F87E-4D5A-9DD5-5C62C25E6627}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ernst Bolt:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Positive validation is wat toegestaan is.
@@ -517,7 +752,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
@@ -526,7 +761,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Een bron over insecure block modes:
@@ -570,22 +805,40 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Met 'policy' wordt bedoeld dat je kenbaar maakt hoe je omgaat met privacy gegevens omgaat.
-Bijvoorbeeld: een statement op een website en een instemming met behulp van een cookie.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Met 'policy' wordt bedoeld dat je kenbaar maakt hoe je omgaat met privacy gegevens omgaat.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bijvoorbeeld: een statement op een website en een instemming met behulp van een cookie.</t>
         </r>
       </text>
     </comment>
@@ -595,7 +848,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -604,14 +857,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dit item gaat expliciet over eigen code en packages van andere bronnen.
-Een uitleg van SRI:
-https://developer.mozilla.org/en-US/docs/Web/Security/Subresource_Integrity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dit item gaat expliciet over eigen code en packages van andere bronnen.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Een uitleg van SRI:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Web/Security/Subresource_Integrity
 </t>
         </r>
       </text>
@@ -622,22 +912,50 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Gedacht kan worden aan rate-limiiting.
-Een bron hierover: https://www.cloudflare.com/learning/bots/what-is-rate-limiting/</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gedacht kan worden aan rate-limiiting.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Een bron hierover: https://www.cloudflare.com/learning/bots/what-is-rate-limiting/</t>
         </r>
       </text>
     </comment>
@@ -672,7 +990,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -681,14 +999,61 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Wat een 'verified source' is niet direct duidelijk.
-Een hint: je kunt zoeken op 'verified content delivery network'.
-Een hit is dan bijvoorbeeld: https://trends.builtwith.com/cdns
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Wat een 'verified source' is niet direct duidelijk.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Een hint: je kunt zoeken op 'verified content delivery network'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Een hit is dan bijvoorbeeld: https://trends.builtwith.com/cdns
 </t>
         </r>
       </text>
@@ -699,7 +1064,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -708,12 +1073,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Hint: extern gehost, dan moet je SRI gebruiken.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hint: extern gehost, dan moet je SRI gebruiken.</t>
         </r>
       </text>
     </comment>
@@ -723,7 +1097,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -732,12 +1106,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Hint: gebruik bijvoorbeeld het aantal Github sterren, aantal downloads etc.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hint: gebruik bijvoorbeeld het aantal Github sterren, aantal downloads etc.</t>
         </r>
       </text>
     </comment>
@@ -747,7 +1130,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -756,12 +1139,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Hint: er bestaan browser extenties die dit voor een geladen pagina in kaart brengen.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hint: er bestaan browser extenties die dit voor een geladen pagina in kaart brengen.</t>
         </r>
       </text>
     </comment>
@@ -771,22 +1163,40 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ernst Bolt:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Een bron met eenvoudige informatie over character sets:
-https://html-totaal.be/17.0-karaktersets.htm</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Een bron met eenvoudige informatie over character sets:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://html-totaal.be/17.0-karaktersets.htm</t>
         </r>
       </text>
     </comment>
@@ -828,7 +1238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="844">
   <si>
     <t>chapter_id</t>
   </si>
@@ -3318,6 +3728,69 @@
   <si>
     <t>De student verzuimt overwegingen te duiden waarbij een afweging van belangen heeft plaatsgevonden.
 De student vertoont risicovol gedrag of geeft blijk van onbegrip m.b.t. de mogelijke gevolgen van handelen of nalaten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De app slaat alleen data op die nodig zijn voor de app om te functioneren. Wel wordt er data gelogt maar dat mag alleen gebruikt worden voor beveiliginig van de app. </t>
+  </si>
+  <si>
+    <t>Staat beschreven in docs/dataVerificationLevel.md</t>
+  </si>
+  <si>
+    <t>Elk commit wordt er beschreven welke veranderingen er gemaakt zijn.</t>
+  </si>
+  <si>
+    <t>Wordt alleen gebruik gemaakt van JavaScript</t>
+  </si>
+  <si>
+    <t>Session token wordt alleen in cookies meegestuurd, sessie token is alleen beschikbaar voor HTTP</t>
+  </si>
+  <si>
+    <t>Er moet een 64 bit nummer gegenereerd worden als secret in productie</t>
+  </si>
+  <si>
+    <t>Cookies zijn versleuteld en http only</t>
+  </si>
+  <si>
+    <t>Zijn secure in productie wanneer er gebruik wordt gemaakt van SSL</t>
+  </si>
+  <si>
+    <t>Session tokens zijn http only</t>
+  </si>
+  <si>
+    <t>Er wordt CSRF gebruikt bij het inloggen https://next-auth.js.org/getting-started/introduction</t>
+  </si>
+  <si>
+    <t>NextJS zorgt hiervoor</t>
+  </si>
+  <si>
+    <t>Sessie is alleen een token en localstorage slaat alleen gdpr preference op</t>
+  </si>
+  <si>
+    <t>Er is een cookie popup die geaccepteerd moet worden</t>
+  </si>
+  <si>
+    <t>App laad geen scripts van derde partijen behalve Google Recaptcha v3</t>
+  </si>
+  <si>
+    <t>Packages worden opgehaald van NPM</t>
+  </si>
+  <si>
+    <t>App maakt niet gebruik van externe CDN</t>
+  </si>
+  <si>
+    <t>Enige derde partij waarvan gebruik wordt gemaakt is Google Recaptcha V3</t>
+  </si>
+  <si>
+    <t>Er wordt alleen bekend gemaakt dat het op Vercel gehost wordt</t>
+  </si>
+  <si>
+    <t>No sniff wordt toegevoegd aan alle requests (bekijk next.config.mjs)</t>
+  </si>
+  <si>
+    <t>Vercel voegt dit automatisch toe</t>
+  </si>
+  <si>
+    <t>Scripts zijn alleen toegestaan van self en Google voor Recaptcha, afbeeldingen zijn alleen toegestaan van githubusercontent voor pfp</t>
   </si>
 </sst>
 </file>
@@ -3469,25 +3942,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3503,9 +3965,22 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -4500,32 +4975,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C247" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R283" sqref="R283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" customWidth="1"/>
-    <col min="18" max="18" width="51" customWidth="1"/>
+    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.33203125" customWidth="1"/>
+    <col min="18" max="18" width="45.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4577,11 +5052,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4628,7 +5103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4672,7 +5147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4716,7 +5191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4760,7 +5235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4800,8 +5275,9 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4838,8 +5314,9 @@
       <c r="Q7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4877,8 +5354,9 @@
       <c r="Q8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4917,8 +5395,9 @@
       <c r="Q9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4955,8 +5434,9 @@
       <c r="Q10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5003,7 +5483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5040,8 +5520,9 @@
       <c r="Q12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5091,7 +5572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5125,8 +5606,9 @@
       <c r="Q14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5160,8 +5642,9 @@
       <c r="Q15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5204,8 +5687,9 @@
       <c r="Q16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5242,8 +5726,9 @@
       <c r="Q17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5295,8 +5780,11 @@
       <c r="Q18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5333,8 +5821,9 @@
       <c r="Q19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5381,7 +5870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5418,8 +5907,9 @@
       <c r="Q21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5456,8 +5946,9 @@
       <c r="Q22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -5494,8 +5985,9 @@
       <c r="Q23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -5532,8 +6024,9 @@
       <c r="Q24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -5580,7 +6073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5627,7 +6120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -5661,8 +6154,9 @@
       <c r="Q27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5711,8 +6205,11 @@
       <c r="Q28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5746,8 +6243,9 @@
       <c r="Q29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -5788,8 +6286,9 @@
       <c r="Q30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -5832,8 +6331,9 @@
       <c r="Q31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -5885,8 +6385,11 @@
       <c r="Q32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R32" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -5933,7 +6436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -5970,8 +6473,9 @@
       <c r="Q34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -6008,8 +6512,9 @@
       <c r="Q35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6043,8 +6548,9 @@
       <c r="Q36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -6081,8 +6587,9 @@
       <c r="Q37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -6123,8 +6630,9 @@
       <c r="Q38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -6161,8 +6669,9 @@
       <c r="Q39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -6199,8 +6708,9 @@
       <c r="Q40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -6243,8 +6753,9 @@
       <c r="Q41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -6281,8 +6792,9 @@
       <c r="Q42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -6334,8 +6846,11 @@
       <c r="Q43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -6378,8 +6893,9 @@
       <c r="Q44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R44"/>
+    </row>
+    <row r="45" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -6422,8 +6938,9 @@
       <c r="Q45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -6466,8 +6983,9 @@
       <c r="Q46" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -6510,8 +7028,9 @@
       <c r="Q47" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -6554,8 +7073,9 @@
       <c r="Q48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -6574,6 +7094,9 @@
       <c r="F49" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
         <v>24</v>
       </c>
@@ -6599,7 +7122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -6618,6 +7141,9 @@
       <c r="F50" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
         <v>24</v>
       </c>
@@ -6643,7 +7169,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -6662,6 +7188,9 @@
       <c r="F51" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
         <v>24</v>
       </c>
@@ -6687,7 +7216,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -6706,6 +7235,9 @@
       <c r="F52" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
         <v>24</v>
       </c>
@@ -6731,7 +7263,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -6750,6 +7282,9 @@
       <c r="F53" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
         <v>24</v>
       </c>
@@ -6775,7 +7310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -6794,6 +7329,9 @@
       <c r="F54" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
         <v>24</v>
       </c>
@@ -6819,7 +7357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -6838,6 +7376,9 @@
       <c r="F55" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
         <v>24</v>
       </c>
@@ -6863,7 +7404,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -6882,6 +7423,9 @@
       <c r="F56" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
         <v>24</v>
       </c>
@@ -6907,7 +7451,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -6926,6 +7470,9 @@
       <c r="F57" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
         <v>24</v>
       </c>
@@ -6951,7 +7498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -6970,6 +7517,9 @@
       <c r="F58" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
         <v>24</v>
       </c>
@@ -6995,7 +7545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -7014,6 +7564,9 @@
       <c r="F59" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -7033,7 +7586,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -7052,6 +7605,9 @@
       <c r="F60" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -7071,7 +7627,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -7090,6 +7646,9 @@
       <c r="F61" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -7109,7 +7668,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -7128,6 +7687,9 @@
       <c r="F62" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -7147,7 +7709,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -7166,6 +7728,9 @@
       <c r="F63" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
         <v>24</v>
       </c>
@@ -7191,7 +7756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -7210,6 +7775,9 @@
       <c r="F64" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -7229,7 +7797,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -7266,8 +7834,9 @@
       <c r="Q65" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -7314,7 +7883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -7351,8 +7920,9 @@
       <c r="Q67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R67"/>
+    </row>
+    <row r="68" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -7389,8 +7959,9 @@
       <c r="Q68" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R68"/>
+    </row>
+    <row r="69" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -7427,8 +7998,9 @@
       <c r="Q69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R69"/>
+    </row>
+    <row r="70" spans="1:18" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -7465,8 +8037,9 @@
       <c r="Q70" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -7509,8 +8082,9 @@
       <c r="Q71" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -7553,8 +8127,9 @@
       <c r="Q72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -7597,8 +8172,9 @@
       <c r="Q73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -7641,8 +8217,9 @@
       <c r="Q74" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -7685,8 +8262,9 @@
       <c r="Q75" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R75"/>
+    </row>
+    <row r="76" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -7729,8 +8307,9 @@
       <c r="Q76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R76"/>
+    </row>
+    <row r="77" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -7767,8 +8346,9 @@
       <c r="Q77" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R77"/>
+    </row>
+    <row r="78" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -7811,8 +8391,9 @@
       <c r="Q78" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R78"/>
+    </row>
+    <row r="79" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -7849,8 +8430,9 @@
       <c r="Q79" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R79"/>
+    </row>
+    <row r="80" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>131</v>
       </c>
@@ -7887,8 +8469,9 @@
       <c r="Q80" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R80"/>
+    </row>
+    <row r="81" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -7907,6 +8490,9 @@
       <c r="F81" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
         <v>24</v>
       </c>
@@ -7932,7 +8518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -7951,6 +8537,9 @@
       <c r="F82" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
         <v>24</v>
       </c>
@@ -7976,7 +8565,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -7995,6 +8584,9 @@
       <c r="F83" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
         <v>24</v>
       </c>
@@ -8020,7 +8612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -8039,6 +8631,9 @@
       <c r="F84" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
         <v>24</v>
       </c>
@@ -8064,7 +8659,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>131</v>
       </c>
@@ -8083,6 +8678,9 @@
       <c r="F85" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -8102,7 +8700,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -8121,6 +8719,9 @@
       <c r="F86" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -8140,7 +8741,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>131</v>
       </c>
@@ -8159,6 +8760,9 @@
       <c r="F87" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
         <v>24</v>
       </c>
@@ -8184,7 +8788,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -8203,6 +8807,9 @@
       <c r="F88" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -8222,7 +8829,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -8241,6 +8848,9 @@
       <c r="F89" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -8260,7 +8870,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -8279,6 +8889,9 @@
       <c r="F90" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -8298,7 +8911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -8317,6 +8930,9 @@
       <c r="F91" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -8336,7 +8952,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -8355,6 +8971,9 @@
       <c r="F92" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -8374,7 +8993,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>131</v>
       </c>
@@ -8393,6 +9012,9 @@
       <c r="F93" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -8412,7 +9034,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -8431,6 +9053,9 @@
       <c r="F94" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -8450,7 +9075,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -8469,6 +9094,9 @@
       <c r="F95" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -8488,7 +9116,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -8507,6 +9135,9 @@
       <c r="F96" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -8526,7 +9157,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -8563,8 +9194,9 @@
       <c r="Q97" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -8601,8 +9233,9 @@
       <c r="Q98" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>131</v>
       </c>
@@ -8639,8 +9272,9 @@
       <c r="Q99" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R99"/>
+    </row>
+    <row r="100" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -8677,8 +9311,9 @@
       <c r="Q100" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100"/>
+    </row>
+    <row r="101" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -8730,8 +9365,11 @@
       <c r="Q101" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>289</v>
       </c>
@@ -8774,8 +9412,9 @@
       <c r="Q102" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>289</v>
       </c>
@@ -8827,8 +9466,11 @@
       <c r="Q103" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R103" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>289</v>
       </c>
@@ -8880,8 +9522,11 @@
       <c r="Q104" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -8922,8 +9567,9 @@
       <c r="Q105" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>289</v>
       </c>
@@ -8966,8 +9612,9 @@
       <c r="Q106" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R106"/>
+    </row>
+    <row r="107" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>289</v>
       </c>
@@ -9004,8 +9651,9 @@
       <c r="Q107" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R107"/>
+    </row>
+    <row r="108" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>289</v>
       </c>
@@ -9048,8 +9696,9 @@
       <c r="Q108" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R108"/>
+    </row>
+    <row r="109" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>289</v>
       </c>
@@ -9086,8 +9735,9 @@
       <c r="Q109" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R109"/>
+    </row>
+    <row r="110" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>289</v>
       </c>
@@ -9139,8 +9789,11 @@
       <c r="Q110" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R110" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>289</v>
       </c>
@@ -9192,8 +9845,11 @@
       <c r="Q111" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R111" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>289</v>
       </c>
@@ -9232,8 +9888,9 @@
       <c r="Q112" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R112"/>
+    </row>
+    <row r="113" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>289</v>
       </c>
@@ -9272,8 +9929,9 @@
       <c r="Q113" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R113"/>
+    </row>
+    <row r="114" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>289</v>
       </c>
@@ -9312,8 +9970,9 @@
       <c r="Q114" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>289</v>
       </c>
@@ -9350,8 +10009,9 @@
       <c r="Q115" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>289</v>
       </c>
@@ -9388,8 +10048,9 @@
       <c r="Q116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -9426,8 +10087,9 @@
       <c r="Q117" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>289</v>
       </c>
@@ -9464,8 +10126,9 @@
       <c r="Q118" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -9502,8 +10165,9 @@
       <c r="Q119" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -9540,8 +10204,9 @@
       <c r="Q120" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>352</v>
       </c>
@@ -9584,8 +10249,9 @@
       <c r="Q121" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R121"/>
+    </row>
+    <row r="122" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>352</v>
       </c>
@@ -9628,8 +10294,9 @@
       <c r="Q122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R122"/>
+    </row>
+    <row r="123" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>352</v>
       </c>
@@ -9672,8 +10339,9 @@
       <c r="Q123" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R123"/>
+    </row>
+    <row r="124" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>352</v>
       </c>
@@ -9707,8 +10375,9 @@
       <c r="Q124" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R124"/>
+    </row>
+    <row r="125" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>352</v>
       </c>
@@ -9751,8 +10420,9 @@
       <c r="Q125" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R125"/>
+    </row>
+    <row r="126" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>352</v>
       </c>
@@ -9795,8 +10465,9 @@
       <c r="Q126" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R126"/>
+    </row>
+    <row r="127" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>352</v>
       </c>
@@ -9845,8 +10516,11 @@
       <c r="Q127" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R127" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>352</v>
       </c>
@@ -9889,8 +10563,9 @@
       <c r="Q128" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R128"/>
+    </row>
+    <row r="129" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>352</v>
       </c>
@@ -9942,8 +10617,11 @@
       <c r="Q129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R129" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>352</v>
       </c>
@@ -9980,8 +10658,9 @@
       <c r="Q130" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R130"/>
+    </row>
+    <row r="131" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>378</v>
       </c>
@@ -10031,7 +10710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>378</v>
       </c>
@@ -10072,8 +10751,9 @@
       <c r="Q132" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R132"/>
+    </row>
+    <row r="133" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>378</v>
       </c>
@@ -10123,7 +10803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>378</v>
       </c>
@@ -10173,7 +10853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>378</v>
       </c>
@@ -10212,8 +10892,9 @@
       <c r="Q135" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R135"/>
+    </row>
+    <row r="136" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>378</v>
       </c>
@@ -10263,7 +10944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>378</v>
       </c>
@@ -10313,7 +10994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>378</v>
       </c>
@@ -10363,7 +11044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>378</v>
       </c>
@@ -10413,7 +11094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>378</v>
       </c>
@@ -10463,7 +11144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>378</v>
       </c>
@@ -10504,8 +11185,9 @@
       <c r="Q141" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R141"/>
+    </row>
+    <row r="142" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>378</v>
       </c>
@@ -10546,8 +11228,9 @@
       <c r="Q142" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R142"/>
+    </row>
+    <row r="143" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>378</v>
       </c>
@@ -10597,7 +11280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>378</v>
       </c>
@@ -10640,8 +11323,9 @@
       <c r="Q144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R144"/>
+    </row>
+    <row r="145" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>378</v>
       </c>
@@ -10682,8 +11366,9 @@
       <c r="Q145" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R145"/>
+    </row>
+    <row r="146" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>378</v>
       </c>
@@ -10733,7 +11418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>378</v>
       </c>
@@ -10780,7 +11465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>378</v>
       </c>
@@ -10827,7 +11512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>378</v>
       </c>
@@ -10877,7 +11562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>378</v>
       </c>
@@ -10924,7 +11609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>378</v>
       </c>
@@ -10971,7 +11656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>378</v>
       </c>
@@ -11014,8 +11699,9 @@
       <c r="Q152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R152"/>
+    </row>
+    <row r="153" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>378</v>
       </c>
@@ -11058,8 +11744,9 @@
       <c r="Q153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R153"/>
+    </row>
+    <row r="154" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>378</v>
       </c>
@@ -11096,8 +11783,9 @@
       <c r="Q154" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R154"/>
+    </row>
+    <row r="155" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>378</v>
       </c>
@@ -11134,8 +11822,9 @@
       <c r="Q155" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R155"/>
+    </row>
+    <row r="156" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>378</v>
       </c>
@@ -11172,8 +11861,9 @@
       <c r="Q156" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R156"/>
+    </row>
+    <row r="157" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>378</v>
       </c>
@@ -11216,8 +11906,9 @@
       <c r="Q157" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R157"/>
+    </row>
+    <row r="158" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>378</v>
       </c>
@@ -11260,8 +11951,9 @@
       <c r="Q158" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R158"/>
+    </row>
+    <row r="159" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>378</v>
       </c>
@@ -11308,7 +12000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>378</v>
       </c>
@@ -11358,7 +12050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>449</v>
       </c>
@@ -11395,8 +12087,9 @@
       <c r="Q161" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R161"/>
+    </row>
+    <row r="162" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>449</v>
       </c>
@@ -11433,8 +12126,9 @@
       <c r="Q162" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R162"/>
+    </row>
+    <row r="163" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>449</v>
       </c>
@@ -11471,8 +12165,9 @@
       <c r="Q163" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R163"/>
+    </row>
+    <row r="164" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>449</v>
       </c>
@@ -11519,7 +12214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>449</v>
       </c>
@@ -11556,8 +12251,9 @@
       <c r="Q165" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R165"/>
+    </row>
+    <row r="166" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>449</v>
       </c>
@@ -11594,8 +12290,9 @@
       <c r="Q166" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R166"/>
+    </row>
+    <row r="167" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>449</v>
       </c>
@@ -11632,8 +12329,9 @@
       <c r="Q167" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R167"/>
+    </row>
+    <row r="168" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>449</v>
       </c>
@@ -11683,7 +12381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>449</v>
       </c>
@@ -11720,8 +12418,9 @@
       <c r="Q169" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R169"/>
+    </row>
+    <row r="170" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>449</v>
       </c>
@@ -11758,8 +12457,9 @@
       <c r="Q170" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R170"/>
+    </row>
+    <row r="171" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>449</v>
       </c>
@@ -11796,8 +12496,9 @@
       <c r="Q171" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R171"/>
+    </row>
+    <row r="172" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>449</v>
       </c>
@@ -11844,7 +12545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>449</v>
       </c>
@@ -11881,8 +12582,9 @@
       <c r="Q173" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R173"/>
+    </row>
+    <row r="174" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>449</v>
       </c>
@@ -11919,8 +12621,9 @@
       <c r="Q174" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R174"/>
+    </row>
+    <row r="175" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>449</v>
       </c>
@@ -11957,8 +12660,9 @@
       <c r="Q175" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R175"/>
+    </row>
+    <row r="176" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>449</v>
       </c>
@@ -11995,8 +12699,9 @@
       <c r="Q176" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R176"/>
+    </row>
+    <row r="177" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>490</v>
       </c>
@@ -12039,8 +12744,9 @@
       <c r="Q177" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R177"/>
+    </row>
+    <row r="178" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>490</v>
       </c>
@@ -12083,8 +12789,9 @@
       <c r="Q178" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R178"/>
+    </row>
+    <row r="179" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>490</v>
       </c>
@@ -12131,7 +12838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>490</v>
       </c>
@@ -12178,7 +12885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>490</v>
       </c>
@@ -12221,8 +12928,9 @@
       <c r="Q181" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R181"/>
+    </row>
+    <row r="182" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>490</v>
       </c>
@@ -12263,8 +12971,9 @@
       <c r="Q182" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R182"/>
+    </row>
+    <row r="183" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>490</v>
       </c>
@@ -12301,8 +13010,9 @@
       <c r="Q183" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R183"/>
+    </row>
+    <row r="184" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>490</v>
       </c>
@@ -12336,8 +13046,9 @@
       <c r="Q184" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R184"/>
+    </row>
+    <row r="185" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>490</v>
       </c>
@@ -12374,8 +13085,9 @@
       <c r="Q185" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R185"/>
+    </row>
+    <row r="186" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>490</v>
       </c>
@@ -12409,8 +13121,9 @@
       <c r="Q186" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R186"/>
+    </row>
+    <row r="187" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>490</v>
       </c>
@@ -12460,7 +13173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>490</v>
       </c>
@@ -12497,8 +13210,9 @@
       <c r="Q188" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R188"/>
+    </row>
+    <row r="189" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>490</v>
       </c>
@@ -12535,8 +13249,9 @@
       <c r="Q189" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R189"/>
+    </row>
+    <row r="190" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>525</v>
       </c>
@@ -12588,8 +13303,9 @@
       <c r="Q190" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R190"/>
+    </row>
+    <row r="191" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>525</v>
       </c>
@@ -12626,8 +13342,9 @@
       <c r="Q191" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R191"/>
+    </row>
+    <row r="192" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>525</v>
       </c>
@@ -12664,8 +13381,9 @@
       <c r="Q192" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R192"/>
+    </row>
+    <row r="193" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>525</v>
       </c>
@@ -12702,8 +13420,9 @@
       <c r="Q193" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R193"/>
+    </row>
+    <row r="194" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>525</v>
       </c>
@@ -12740,8 +13459,9 @@
       <c r="Q194" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R194"/>
+    </row>
+    <row r="195" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>525</v>
       </c>
@@ -12778,8 +13498,9 @@
       <c r="Q195" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R195"/>
+    </row>
+    <row r="196" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>525</v>
       </c>
@@ -12822,8 +13543,9 @@
       <c r="Q196" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R196"/>
+    </row>
+    <row r="197" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>525</v>
       </c>
@@ -12875,8 +13597,11 @@
       <c r="Q197" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R197" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>525</v>
       </c>
@@ -12919,8 +13644,9 @@
       <c r="Q198" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R198"/>
+    </row>
+    <row r="199" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>525</v>
       </c>
@@ -12970,7 +13696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>525</v>
       </c>
@@ -13011,8 +13737,9 @@
       <c r="Q200" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R200"/>
+    </row>
+    <row r="201" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>525</v>
       </c>
@@ -13064,8 +13791,11 @@
       <c r="Q201" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R201" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>525</v>
       </c>
@@ -13115,7 +13845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>525</v>
       </c>
@@ -13162,7 +13892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>525</v>
       </c>
@@ -13199,8 +13929,9 @@
       <c r="Q204" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R204"/>
+    </row>
+    <row r="205" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>525</v>
       </c>
@@ -13237,8 +13968,9 @@
       <c r="Q205" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R205"/>
+    </row>
+    <row r="206" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>525</v>
       </c>
@@ -13275,8 +14007,9 @@
       <c r="Q206" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R206"/>
+    </row>
+    <row r="207" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>566</v>
       </c>
@@ -13317,8 +14050,9 @@
       <c r="Q207" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R207"/>
+    </row>
+    <row r="208" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>566</v>
       </c>
@@ -13359,8 +14093,9 @@
       <c r="Q208" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R208"/>
+    </row>
+    <row r="209" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>566</v>
       </c>
@@ -13401,8 +14136,9 @@
       <c r="Q209" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R209"/>
+    </row>
+    <row r="210" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>566</v>
       </c>
@@ -13439,8 +14175,9 @@
       <c r="Q210" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R210"/>
+    </row>
+    <row r="211" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>566</v>
       </c>
@@ -13481,8 +14218,9 @@
       <c r="Q211" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R211"/>
+    </row>
+    <row r="212" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>566</v>
       </c>
@@ -13519,8 +14257,9 @@
       <c r="Q212" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R212"/>
+    </row>
+    <row r="213" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>566</v>
       </c>
@@ -13557,8 +14296,9 @@
       <c r="Q213" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R213"/>
+    </row>
+    <row r="214" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>566</v>
       </c>
@@ -13595,8 +14335,9 @@
       <c r="Q214" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R214"/>
+    </row>
+    <row r="215" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>587</v>
       </c>
@@ -13633,8 +14374,9 @@
       <c r="Q215" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R215"/>
+    </row>
+    <row r="216" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>587</v>
       </c>
@@ -13677,8 +14419,9 @@
       <c r="Q216" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R216"/>
+    </row>
+    <row r="217" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>587</v>
       </c>
@@ -13715,8 +14458,9 @@
       <c r="Q217" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R217"/>
+    </row>
+    <row r="218" spans="1:18" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>587</v>
       </c>
@@ -13753,8 +14497,9 @@
       <c r="Q218" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R218"/>
+    </row>
+    <row r="219" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>587</v>
       </c>
@@ -13791,8 +14536,9 @@
       <c r="Q219" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R219"/>
+    </row>
+    <row r="220" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>587</v>
       </c>
@@ -13829,8 +14575,9 @@
       <c r="Q220" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R220"/>
+    </row>
+    <row r="221" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>587</v>
       </c>
@@ -13867,8 +14614,9 @@
       <c r="Q221" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R221"/>
+    </row>
+    <row r="222" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>587</v>
       </c>
@@ -13915,7 +14663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>587</v>
       </c>
@@ -13967,8 +14715,11 @@
       <c r="Q223" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R223" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>587</v>
       </c>
@@ -14011,8 +14762,9 @@
       <c r="Q224" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R224"/>
+    </row>
+    <row r="225" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>614</v>
       </c>
@@ -14055,8 +14807,9 @@
       <c r="Q225" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R225"/>
+    </row>
+    <row r="226" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>614</v>
       </c>
@@ -14103,7 +14856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>614</v>
       </c>
@@ -14153,7 +14906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>614</v>
       </c>
@@ -14200,7 +14953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>614</v>
       </c>
@@ -14247,7 +15000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>614</v>
       </c>
@@ -14284,8 +15037,9 @@
       <c r="Q230" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R230"/>
+    </row>
+    <row r="231" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>614</v>
       </c>
@@ -14322,8 +15076,9 @@
       <c r="Q231" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R231"/>
+    </row>
+    <row r="232" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>614</v>
       </c>
@@ -14360,8 +15115,9 @@
       <c r="Q232" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R232"/>
+    </row>
+    <row r="233" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>633</v>
       </c>
@@ -14404,8 +15160,9 @@
       <c r="Q233" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R233"/>
+    </row>
+    <row r="234" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>633</v>
       </c>
@@ -14442,8 +15199,9 @@
       <c r="Q234" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R234"/>
+    </row>
+    <row r="235" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>633</v>
       </c>
@@ -14480,8 +15238,9 @@
       <c r="Q235" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R235"/>
+    </row>
+    <row r="236" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>633</v>
       </c>
@@ -14518,8 +15277,9 @@
       <c r="Q236" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R236"/>
+    </row>
+    <row r="237" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>633</v>
       </c>
@@ -14569,7 +15329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>633</v>
       </c>
@@ -14616,7 +15376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>633</v>
       </c>
@@ -14663,7 +15423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>633</v>
       </c>
@@ -14702,8 +15462,9 @@
       <c r="Q240" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R240"/>
+    </row>
+    <row r="241" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>633</v>
       </c>
@@ -14750,7 +15511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>633</v>
       </c>
@@ -14802,8 +15563,11 @@
       <c r="Q242" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R242" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -14850,7 +15614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>633</v>
       </c>
@@ -14893,8 +15657,9 @@
       <c r="Q244" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R244"/>
+    </row>
+    <row r="245" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>633</v>
       </c>
@@ -14941,7 +15706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>633</v>
       </c>
@@ -14988,7 +15753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -15035,7 +15800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>676</v>
       </c>
@@ -15082,7 +15847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>676</v>
       </c>
@@ -15116,8 +15881,9 @@
       <c r="Q249" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R249"/>
+    </row>
+    <row r="250" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>676</v>
       </c>
@@ -15164,7 +15930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>676</v>
       </c>
@@ -15201,8 +15967,9 @@
       <c r="Q251" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R251"/>
+    </row>
+    <row r="252" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>676</v>
       </c>
@@ -15239,8 +16006,9 @@
       <c r="Q252" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R252"/>
+    </row>
+    <row r="253" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>676</v>
       </c>
@@ -15290,7 +16058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>676</v>
       </c>
@@ -15340,7 +16108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>676</v>
       </c>
@@ -15387,7 +16155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>676</v>
       </c>
@@ -15421,8 +16189,9 @@
       <c r="Q256" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R256"/>
+    </row>
+    <row r="257" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>676</v>
       </c>
@@ -15469,7 +16238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>676</v>
       </c>
@@ -15506,8 +16275,9 @@
       <c r="Q258" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R258"/>
+    </row>
+    <row r="259" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>676</v>
       </c>
@@ -15546,8 +16316,9 @@
       <c r="Q259" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R259"/>
+    </row>
+    <row r="260" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>676</v>
       </c>
@@ -15584,8 +16355,9 @@
       <c r="Q260" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R260"/>
+    </row>
+    <row r="261" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>676</v>
       </c>
@@ -15622,8 +16394,9 @@
       <c r="Q261" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R261"/>
+    </row>
+    <row r="262" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>676</v>
       </c>
@@ -15660,8 +16433,9 @@
       <c r="Q262" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R262"/>
+    </row>
+    <row r="263" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>715</v>
       </c>
@@ -15701,8 +16475,9 @@
       <c r="Q263" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R263"/>
+    </row>
+    <row r="264" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>715</v>
       </c>
@@ -15739,8 +16514,9 @@
       <c r="Q264" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R264"/>
+    </row>
+    <row r="265" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>715</v>
       </c>
@@ -15777,8 +16553,9 @@
       <c r="Q265" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R265"/>
+    </row>
+    <row r="266" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>715</v>
       </c>
@@ -15816,8 +16593,9 @@
       <c r="Q266" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R266"/>
+    </row>
+    <row r="267" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>715</v>
       </c>
@@ -15851,8 +16629,9 @@
       <c r="Q267" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R267"/>
+    </row>
+    <row r="268" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>715</v>
       </c>
@@ -15902,7 +16681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>715</v>
       </c>
@@ -15945,8 +16724,9 @@
       <c r="Q269" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R269"/>
+    </row>
+    <row r="270" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>715</v>
       </c>
@@ -15998,8 +16778,11 @@
       <c r="Q270" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R270" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>715</v>
       </c>
@@ -16051,8 +16834,11 @@
       <c r="Q271" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R271" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>715</v>
       </c>
@@ -16086,8 +16872,9 @@
       <c r="Q272" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R272"/>
+    </row>
+    <row r="273" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>715</v>
       </c>
@@ -16124,8 +16911,9 @@
       <c r="Q273" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R273"/>
+    </row>
+    <row r="274" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>715</v>
       </c>
@@ -16159,8 +16947,9 @@
       <c r="Q274" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R274"/>
+    </row>
+    <row r="275" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>715</v>
       </c>
@@ -16210,7 +16999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>715</v>
       </c>
@@ -16262,8 +17051,11 @@
       <c r="Q276" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R276" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>715</v>
       </c>
@@ -16313,7 +17105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>715</v>
       </c>
@@ -16360,7 +17152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>715</v>
       </c>
@@ -16410,7 +17202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>715</v>
       </c>
@@ -16462,8 +17254,11 @@
       <c r="Q280" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R280" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>715</v>
       </c>
@@ -16515,8 +17310,11 @@
       <c r="Q281" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R281" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>715</v>
       </c>
@@ -16557,8 +17355,9 @@
       <c r="Q282" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R282"/>
+    </row>
+    <row r="283" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>715</v>
       </c>
@@ -16610,8 +17409,11 @@
       <c r="Q283" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R283" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>715</v>
       </c>
@@ -16654,8 +17456,9 @@
       <c r="Q284" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R284"/>
+    </row>
+    <row r="285" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>715</v>
       </c>
@@ -16702,7 +17505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>715</v>
       </c>
@@ -16749,7 +17552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>715</v>
       </c>
@@ -16786,8 +17589,9 @@
       <c r="Q287" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R287"/>
+    </row>
+    <row r="288" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -16821,8 +17625,9 @@
       <c r="Q288" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="290" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="R288"/>
+    </row>
+    <row r="290" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G290" s="1">
         <f xml:space="preserve"> COUNTA(G44:G286)</f>
         <v>17</v>
@@ -16848,7 +17653,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="291" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G291" s="1">
         <f>G290-F290</f>
         <v>17</v>
@@ -16893,15 +17698,15 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="24" customWidth="1"/>
-    <col min="7" max="23" width="4.42578125" customWidth="1"/>
+    <col min="1" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="24" customWidth="1"/>
+    <col min="7" max="23" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>776</v>
       </c>
@@ -16931,7 +17736,7 @@
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>778</v>
       </c>
@@ -16999,7 +17804,7 @@
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -17037,7 +17842,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -17075,7 +17880,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -17113,7 +17918,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -17151,7 +17956,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -17189,7 +17994,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -17227,7 +18032,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -17265,7 +18070,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -17303,7 +18108,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -17341,7 +18146,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -17379,7 +18184,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -17417,7 +18222,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -17455,7 +18260,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -17493,7 +18298,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -17531,7 +18336,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -17569,7 +18374,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -17607,7 +18412,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -17645,7 +18450,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -17683,7 +18488,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -17721,7 +18526,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -17759,7 +18564,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -17797,7 +18602,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -17835,7 +18640,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -17873,7 +18678,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -17911,7 +18716,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -17949,7 +18754,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -17987,7 +18792,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -18025,7 +18830,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -18063,7 +18868,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -18089,7 +18894,7 @@
       <c r="W31" s="31"/>
       <c r="X31" s="31"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -18161,12 +18966,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="51.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>788</v>
       </c>
@@ -18184,7 +18989,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>793</v>
       </c>
@@ -18202,7 +19007,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>798</v>
       </c>
@@ -18220,7 +19025,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>803</v>
       </c>
@@ -18238,7 +19043,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>808</v>
       </c>
@@ -18256,7 +19061,7 @@
       </c>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>813</v>
       </c>
@@ -18274,7 +19079,7 @@
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>818</v>
       </c>
@@ -18292,7 +19097,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -18300,7 +19105,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -18308,7 +19113,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -18316,7 +19121,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -18324,7 +19129,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -18332,7 +19137,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -18340,7 +19145,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -18348,7 +19153,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -18356,7 +19161,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -18364,7 +19169,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
